--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/MI/trans/SoCDTtiNTY/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\MI\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BECDC0D1-8DAB-4545-BC40-0ED7F4017C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD3F877C-28DF-431C-8243-6DB3EF464BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -480,9 +480,9 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,10 +490,10 @@
         <v>26</v>
       </c>
       <c r="C1" s="5">
-        <v>45295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,47 +501,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -559,16 +559,16 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="8" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -594,33 +594,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="E2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="G2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -646,7 +646,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -672,7 +672,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -698,7 +698,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -724,7 +724,7 @@
         <v>2.9819999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -766,13 +766,13 @@
       <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="8" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -798,7 +798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -824,33 +824,33 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.7500000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C3">
-        <v>5.7500000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D3">
-        <v>5.7500000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E3">
-        <v>5.7500000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F3">
-        <v>5.7500000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G3">
-        <v>5.7500000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H3">
-        <v>5.7500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -876,7 +876,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -902,7 +902,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -928,7 +928,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>17</v>
       </c>
